--- a/深圳公司.xlsx
+++ b/深圳公司.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29524\Desktop\求职\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Litchi\Desktop\桌面\About_Work-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ACE93B-4D3A-4707-8F32-CC98C0B4E968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77259B9E-B007-4145-A171-3A9BBE26FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="146">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,56 @@
   </si>
   <si>
     <t>itwanger/JavaBooks: 📚Java程序员必读书单（超1000本PDF，附下载地址）包括但不限于Java、设计模式、计算机网络、操作系统、数据库、数据结构与算法、大数据、架构、面试等等，助力每一个Java程序员构建属于自己的知识体系。 (github.com)</t>
+  </si>
+  <si>
+    <t>Leecode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法导论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典,带着问题学习这本书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同类的问题一起刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">先简单再困难, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期针对, 学习知识刷题交替学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先简单解法, 不追求效率, 先暴力求解,之后再追求指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个问题多种解法的区分, 多个问题一个解法的总结,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leecode可以跟着这两个网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labuladong/fucking-algorithm: 刷算法全靠套路，认准 labuladong 就够了！English version supported! Crack LeetCode, not only how, but also why. (github.com)</t>
+  </si>
+  <si>
+    <t>代码随想录 (programmercarl.com)</t>
   </si>
 </sst>
 </file>
@@ -862,23 +912,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="40" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="8.875" style="5"/>
+    <col min="5" max="13" width="8.875" style="1"/>
+    <col min="14" max="40" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -948,7 +998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -989,7 +1039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -1013,7 +1063,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -1036,7 +1086,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>360</v>
       </c>
@@ -1052,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1159,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1185,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1158,7 +1208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1239,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1250,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1284,7 +1334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1292,7 +1342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +1361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1319,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1327,7 +1377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1338,12 +1388,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1351,7 +1401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1359,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1383,7 +1433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1391,7 +1441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1407,7 +1457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1418,7 +1468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1435,7 +1485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -1443,7 +1493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1451,7 +1501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -1462,17 +1512,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>103</v>
       </c>
@@ -1492,7 +1542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>130</v>
       </c>
@@ -1500,14 +1550,66 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1583,8 +1685,10 @@
     <hyperlink ref="F48" r:id="rId68" xr:uid="{B8F8B030-BD9B-4466-AA49-C1109C1DA7B0}"/>
     <hyperlink ref="B75" r:id="rId69" display="https://blog.csdn.net/csdner250/article/details/132127069?spm=1001.2014.3001.5502" xr:uid="{680ABAEB-959D-4662-A123-69A0D97F15A4}"/>
     <hyperlink ref="B76" r:id="rId70" location="c-1" display="https://github.com/itwanger/JavaBooks - c-1" xr:uid="{19111A33-99AE-495D-8B67-521F470A0517}"/>
+    <hyperlink ref="B88" r:id="rId71" display="https://github.com/labuladong/fucking-algorithm" xr:uid="{A3BF1D65-3560-4AF2-9608-00169A267B2F}"/>
+    <hyperlink ref="B89" r:id="rId72" display="https://www.programmercarl.com/" xr:uid="{4C3BAC91-BFDD-46B9-B6B4-11FB19A48EB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>